--- a/cloud-gaming-tabulka.xlsx
+++ b/cloud-gaming-tabulka.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milan\Desktop\Google Drive\school\MIP_B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milan\Desktop\Google Drive\school\MIP_B\mip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB2CE24-C53A-4699-B328-82674488C664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B492B4A-3DFD-4604-A8F1-77CA50A51EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>GeForce Now</t>
-  </si>
-  <si>
-    <t>Google Stadia*</t>
   </si>
   <si>
     <t>Xbox Cloud</t>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t>Internetové nároky [mbps]</t>
+  </si>
+  <si>
+    <t>Google Stadia</t>
   </si>
 </sst>
 </file>
@@ -374,7 +374,7 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -391,16 +391,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -425,7 +425,7 @@
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="4">
         <v>9.99</v>
@@ -465,7 +465,7 @@
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="5">
         <v>1500</v>
@@ -474,10 +474,10 @@
         <v>277</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="5">
         <v>120</v>
@@ -505,22 +505,22 @@
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="F4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -545,7 +545,7 @@
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="5">
         <v>15</v>
